--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CB55941E-8042-481E-BDE6-366AEB7617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E667BF-EC70-4880-8D56-DB8645E90EE5}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB55941E-8042-481E-BDE6-366AEB7617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAC7BF5-099E-47B2-A9FC-60699F19E2FC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="23130" windowHeight="15585" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_02_01" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Par3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,66 @@
   </si>
   <si>
     <t>처리내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스크 요청사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 내부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방재실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미화팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층 퍼팅 연습장 내부 테이블 다리 점검 및 수리 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3층 헬스장 남자 화장실 문 손잡이쪽 벽면 부서짐. 부서짐 방지 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우, 중간 계단 손잡이 먼지 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로등 쓰러짐 문제 해결 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어프로치 쪽 에어건 발판 미끄러움 해결 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어프로찌 쪽 에어건 1개 고장남 수리 요청 (오른쪽 2번째 에어건)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타석쪽 인터폰 먼지 청소 요청.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -244,13 +310,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,14 +358,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,253 +723,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6B69E4-8BBE-45C5-BCFE-7C36D7B658A0}">
-  <dimension ref="B1:D43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="78.625" customWidth="1"/>
-    <col min="4" max="4" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="18" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="13"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="13"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="13"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20250201</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="13"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="13"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="13"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="13"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="13"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="13"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="13"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="13"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="13"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="13"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="13"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="13"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="7">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E1:E44"/>
+    <mergeCell ref="A1:A44"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\데스크공동작업폴더\kws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB55941E-8042-481E-BDE6-366AEB7617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAC7BF5-099E-47B2-A9FC-60699F19E2FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_02_01" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Par3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>타석쪽 인터폰 먼지 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어프로치 쪽 에어건 1개 고장남 수리 요청 (오른쪽 2번째 에어건)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,30 +362,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,15 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -408,6 +379,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +724,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,54 +732,54 @@
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="70.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="1.625" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="62.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
     <col min="8" max="9" width="8.625" customWidth="1"/>
     <col min="10" max="10" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -792,17 +790,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="1">
@@ -813,17 +811,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1">
@@ -834,15 +832,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="1">
@@ -853,19 +851,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="1">
@@ -876,34 +874,34 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="1">
@@ -914,15 +912,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1">
@@ -933,16 +931,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="20" t="s">
-        <v>41</v>
+      <c r="G11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H11" s="1">
         <v>20250201</v>
@@ -952,439 +950,439 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\데스크공동작업폴더\kws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A6199A-F946-4ECD-A891-E8E9D1594AA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_02_01" sheetId="1" r:id="rId1"/>
+    <sheet name="2025_02_05" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>Par3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +201,46 @@
   </si>
   <si>
     <t>어프로치 쪽 에어건 1개 고장남 수리 요청 (오른쪽 2번째 에어건)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어건 맨 오른쪽 작동시 늦게 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번홀 티샷위치 위험함. 급경사로 뒤로 넘어질 가능성 높음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번홀 나가는 길에 밧줄이 머리 높이라 위험함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그물망 및 와이어선 여전히 방치.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 카메라 보충 및 기둥 부서지거나 구부러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어프로치 홀컵 다시 뚫어야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서진 깃대 재구매 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어프로치 벙커 모래 부족 채워야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터폰 청결 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 세면대 손잡이 안쪽 더러움 또는 미끄러움.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +302,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,6 +458,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6B69E4-8BBE-45C5-BCFE-7C36D7B658A0}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1398,4 +1466,906 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60F5290-3D51-4814-959C-6304566E8565}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A57"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E57"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B57:D57"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A6199A-F946-4ECD-A891-E8E9D1594AA1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3030DB9D-1D6D-43C2-BCA1-262B7A751FAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
@@ -402,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +433,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -458,21 +467,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,14 +803,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -826,16 +820,16 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -843,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -858,13 +852,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
@@ -879,7 +873,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
@@ -900,13 +894,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
@@ -919,7 +913,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,7 +923,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>42</v>
@@ -942,7 +936,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -950,14 +944,14 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -965,7 +959,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
@@ -980,13 +974,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>40</v>
@@ -999,13 +993,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>43</v>
@@ -1018,7 +1012,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1028,14 +1022,14 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1043,14 +1037,14 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1058,14 +1052,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1073,53 +1067,53 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1127,40 +1121,40 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1170,14 +1164,14 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1187,14 +1181,14 @@
       <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>37</v>
@@ -1202,14 +1196,14 @@
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>38</v>
@@ -1217,14 +1211,14 @@
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>42</v>
@@ -1232,14 +1226,14 @@
       <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
@@ -1247,14 +1241,14 @@
       <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>40</v>
@@ -1262,14 +1256,14 @@
       <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
         <v>41</v>
@@ -1277,49 +1271,49 @@
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,128 +1323,128 @@
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1473,7 +1467,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1490,14 +1484,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1507,24 +1501,24 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1539,14 +1533,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -1560,14 +1554,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1579,13 +1573,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1600,13 +1594,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -1619,7 +1613,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1642,13 +1636,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1661,13 +1655,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1682,13 +1676,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1701,7 +1695,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1722,13 +1716,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1741,13 +1735,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -1760,13 +1754,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>52</v>
@@ -1779,13 +1773,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>53</v>
@@ -1798,13 +1792,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>21</v>
@@ -1817,20 +1811,20 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1838,118 +1832,116 @@
         <v>13</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -1959,15 +1951,15 @@
       <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -1976,29 +1968,29 @@
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,14 +2000,14 @@
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
@@ -2023,14 +2015,14 @@
       <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2040,14 +2032,14 @@
       <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -2055,14 +2047,14 @@
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
@@ -2072,14 +2064,14 @@
       <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>14</v>
@@ -2087,14 +2079,14 @@
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -2102,14 +2094,14 @@
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2117,14 +2109,14 @@
       <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>20</v>
@@ -2132,14 +2124,14 @@
       <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>52</v>
@@ -2147,14 +2139,14 @@
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>53</v>
@@ -2162,14 +2154,14 @@
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>21</v>
@@ -2177,49 +2169,45 @@
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
@@ -2229,130 +2217,88 @@
       <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3030DB9D-1D6D-43C2-BCA1-262B7A751FAA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A54C2E-C0B3-4971-BA7B-08453C5E5F15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_02_01" sheetId="1" r:id="rId1"/>
     <sheet name="2025_02_05" sheetId="2" r:id="rId2"/>
+    <sheet name="2025_02_06" sheetId="3" r:id="rId3"/>
+    <sheet name="2025_02_08" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
   <si>
     <t>Par3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +243,66 @@
   </si>
   <si>
     <t>화장실 세면대 손잡이 안쪽 더러움 또는 미끄러움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터쪽 왼쪽 문 열고 닫을 때마다 밑부분이 긁히거나 부딪힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번홀 티샷부근 옆길 이동 발판 왜 만들었는지 확인 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4층 복도 정수기옆 고객소리함 위 먼지 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 내부 창문 옆 완강기 위 먼지 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 내부 기구 손잡이 떼 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP룸 (42~43 타석) 내부 문이 밑의 지면에 끌림 소리가 시끄러움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP룸 (44~45 타석) 내부 문이 밑의 지면에 끌림 소리가 시끄러움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 사우나 연회원 사물함 방치됨. 청소 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동문 수리 요청. (2층 휴게실, 3층 50번타석, 3층 42번타석, 4층 휴게실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3,4층 전층 좌, 우, 중앙 계단 손잡이 먼지 청소 요청 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,층 전층 타석 인터폰 먼지 청소 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +504,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +869,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,14 +886,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,16 +903,16 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -852,13 +935,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
@@ -873,7 +956,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -881,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
@@ -894,13 +977,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
@@ -913,7 +996,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -923,7 +1006,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>42</v>
@@ -936,7 +1019,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -944,14 +1027,14 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -959,7 +1042,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
@@ -974,13 +1057,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>40</v>
@@ -993,13 +1076,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>43</v>
@@ -1012,7 +1095,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1022,14 +1105,14 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1037,14 +1120,14 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1052,14 +1135,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1067,53 +1150,53 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1121,40 +1204,40 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1164,14 +1247,14 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1181,14 +1264,14 @@
       <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>37</v>
@@ -1196,14 +1279,14 @@
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>38</v>
@@ -1211,14 +1294,14 @@
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>42</v>
@@ -1226,14 +1309,14 @@
       <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
@@ -1241,14 +1324,14 @@
       <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>40</v>
@@ -1256,14 +1339,14 @@
       <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
         <v>41</v>
@@ -1271,49 +1354,49 @@
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1323,128 +1406,128 @@
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1466,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60F5290-3D51-4814-959C-6304566E8565}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1558,7 @@
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="70.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="1.625" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
@@ -1484,41 +1567,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1533,13 +1616,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3"/>
       <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1554,13 +1637,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
         <v>46</v>
@@ -1573,13 +1656,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1594,13 +1677,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -1613,15 +1696,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1636,13 +1719,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1655,13 +1738,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1676,13 +1759,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1695,15 +1778,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1716,13 +1799,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1735,13 +1818,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3"/>
       <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -1754,13 +1837,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>52</v>
@@ -1773,13 +1856,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>53</v>
@@ -1792,13 +1875,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>21</v>
@@ -1811,494 +1894,498 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1"/>
       <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1"/>
       <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="17"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="17"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="17"/>
+      <c r="D46" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2314,4 +2401,1321 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE8FF8-F415-41FB-824E-72B0722BDDBF}">
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A59"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E59"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B59:D59"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414DC842-B5D3-4AFE-BE86-3493404494EC}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="28">
+        <v>45696</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20250208</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A41"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E41"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/시설 점검 및 청결 체크.xlsx
+++ b/시설 점검 및 청결 체크.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A54C2E-C0B3-4971-BA7B-08453C5E5F15}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F9B77A0A-70B4-4BB2-AE06-F4AF6807F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CE83BB-4259-4C70-BF20-3F84CD490C48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26670" windowHeight="14415" activeTab="4" xr2:uid="{C4BBF8F8-58C3-4A4F-8732-7EBAE1BF0A51}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_02_01" sheetId="1" r:id="rId1"/>
     <sheet name="2025_02_05" sheetId="2" r:id="rId2"/>
     <sheet name="2025_02_06" sheetId="3" r:id="rId3"/>
     <sheet name="2025_02_08" sheetId="4" r:id="rId4"/>
+    <sheet name="2025_02_19" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="73">
   <si>
     <t>Par3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +304,22 @@
   </si>
   <si>
     <t>작업날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 사우나 비누 거치대 곰팡이 및 오물 제거요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 사우나 샤워장 벽면 물떼 제거요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 사우나 샤워기 호수 빠져있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 사우나 비누 받침 깨진것들이 있음 새거로 교체.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,6 +539,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -548,9 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,14 +903,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -903,16 +920,16 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -935,13 +952,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
@@ -956,7 +973,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
@@ -977,13 +994,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
@@ -996,7 +1013,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1023,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>42</v>
@@ -1019,7 +1036,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1027,14 +1044,14 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1042,7 +1059,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1057,13 +1074,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>40</v>
@@ -1076,13 +1093,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>43</v>
@@ -1095,7 +1112,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1105,14 +1122,14 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1120,14 +1137,14 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1135,14 +1152,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1150,53 +1167,53 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1204,40 +1221,40 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1247,14 +1264,14 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1264,14 +1281,14 @@
       <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>37</v>
@@ -1279,14 +1296,14 @@
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>38</v>
@@ -1294,14 +1311,14 @@
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>42</v>
@@ -1309,14 +1326,14 @@
       <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
@@ -1324,14 +1341,14 @@
       <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>40</v>
@@ -1339,14 +1356,14 @@
       <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1"/>
       <c r="C29" s="9" t="s">
         <v>41</v>
@@ -1354,49 +1371,49 @@
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="23"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="23"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1406,128 +1423,128 @@
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="23"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1567,14 +1584,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1584,16 +1601,16 @@
       <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,13 +1633,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3"/>
       <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1637,13 +1654,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
         <v>46</v>
@@ -1656,13 +1673,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1677,13 +1694,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -1696,7 +1713,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1719,13 +1736,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3"/>
       <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1738,13 +1755,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1759,13 +1776,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1778,7 +1795,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1799,13 +1816,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3"/>
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1818,13 +1835,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3"/>
       <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -1837,13 +1854,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3"/>
       <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>52</v>
@@ -1856,13 +1873,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>53</v>
@@ -1875,13 +1892,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>21</v>
@@ -1894,20 +1911,20 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1915,116 +1932,116 @@
         <v>13</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1"/>
       <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1"/>
       <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2034,14 +2051,14 @@
       <c r="D28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>0</v>
       </c>
@@ -2051,14 +2068,14 @@
       <c r="D29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>46</v>
@@ -2066,14 +2083,14 @@
       <c r="D30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2083,14 +2100,14 @@
       <c r="D31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>47</v>
@@ -2098,14 +2115,14 @@
       <c r="D32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2115,14 +2132,14 @@
       <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -2130,14 +2147,14 @@
       <c r="D34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
@@ -2147,14 +2164,14 @@
       <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>14</v>
@@ -2162,14 +2179,14 @@
       <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -2177,14 +2194,14 @@
       <c r="D37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2192,14 +2209,14 @@
       <c r="D38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>20</v>
@@ -2207,14 +2224,14 @@
       <c r="D39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>52</v>
@@ -2222,14 +2239,14 @@
       <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>53</v>
@@ -2237,14 +2254,14 @@
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>21</v>
@@ -2252,45 +2269,45 @@
       <c r="D42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="23"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
@@ -2300,10 +2317,10 @@
       <c r="D46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -2311,10 +2328,10 @@
       <c r="D47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -2322,70 +2339,70 @@
       <c r="D48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="23"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="23"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2425,14 +2442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2442,16 +2459,16 @@
       <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2476,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2474,13 +2491,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3"/>
       <c r="C4" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
@@ -2489,52 +2506,52 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="10"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3"/>
       <c r="C6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="10"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3"/>
       <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3"/>
       <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2543,20 +2560,20 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3"/>
       <c r="C9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2573,26 +2590,26 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2601,20 +2618,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3"/>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2622,92 +2639,92 @@
         <v>8</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3"/>
       <c r="C16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2715,116 +2732,116 @@
         <v>13</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1"/>
       <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1"/>
       <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1"/>
       <c r="C24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1"/>
       <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
       <c r="C26" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2834,198 +2851,198 @@
       <c r="D30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="10"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="23"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="23"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="1"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="23"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="1"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="23"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
@@ -3035,10 +3052,10 @@
       <c r="D48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -3046,10 +3063,10 @@
       <c r="D49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -3057,70 +3074,70 @@
       <c r="D50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="23"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="23"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3142,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414DC842-B5D3-4AFE-BE86-3493404494EC}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3160,31 +3177,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="19">
         <v>45696</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3194,7 +3211,7 @@
       <c r="D3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3209,7 +3226,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3232,13 +3249,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="10"/>
       <c r="G5" s="14" t="s">
         <v>67</v>
@@ -3251,13 +3268,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3"/>
       <c r="C6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="10"/>
       <c r="G6" s="14" t="s">
         <v>59</v>
@@ -3270,13 +3287,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3"/>
       <c r="C7" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="10"/>
       <c r="G7" s="13" t="s">
         <v>60</v>
@@ -3289,13 +3306,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3"/>
       <c r="C8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3"/>
       <c r="G8" s="14" t="s">
         <v>61</v>
@@ -3308,13 +3325,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3"/>
       <c r="C9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="1"/>
       <c r="G9" s="14" t="s">
         <v>64</v>
@@ -3327,39 +3344,39 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3"/>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1"/>
       <c r="G11" s="14"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
       <c r="G12" s="14" t="s">
         <v>65</v>
@@ -3372,11 +3389,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3"/>
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1"/>
       <c r="G13" s="14" t="s">
         <v>62</v>
@@ -3389,11 +3406,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="14"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
       <c r="G14" s="14" t="s">
         <v>63</v>
@@ -3406,31 +3423,31 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1"/>
       <c r="G15" s="14"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1"/>
       <c r="G16" s="14"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -3440,14 +3457,14 @@
       <c r="D17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3457,14 +3474,14 @@
       <c r="D18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14" t="s">
         <v>67</v>
@@ -3472,14 +3489,14 @@
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14" t="s">
         <v>59</v>
@@ -3487,14 +3504,14 @@
       <c r="D20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1"/>
       <c r="C21" s="13" t="s">
         <v>60</v>
@@ -3502,14 +3519,14 @@
       <c r="D21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14" t="s">
         <v>61</v>
@@ -3517,14 +3534,14 @@
       <c r="D22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1"/>
       <c r="C23" s="14" t="s">
         <v>64</v>
@@ -3532,36 +3549,36 @@
       <c r="D23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="3"/>
       <c r="C24" s="14"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1"/>
       <c r="C25" s="14"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
       <c r="C26" s="14" t="s">
         <v>65</v>
@@ -3569,14 +3586,14 @@
       <c r="D26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14" t="s">
         <v>62</v>
@@ -3584,14 +3601,14 @@
       <c r="D27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1"/>
       <c r="C28" s="14" t="s">
         <v>63</v>
@@ -3599,23 +3616,23 @@
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
@@ -3625,84 +3642,636 @@
       <c r="D30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A41"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E41"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19AF3CD-994B-40D5-A633-E0D71E36B499}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="19">
+        <v>45696</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20250219</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20250219</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20250219</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20250219</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
